--- a/biology/Botanique/Square_du_Docteur-Variot/Square_du_Docteur-Variot.xlsx
+++ b/biology/Botanique/Square_du_Docteur-Variot/Square_du_Docteur-Variot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square du Docteur-Variot est un square situé près de la porte des Lilas, dans le 20e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce square est encadré au sud par la rue Antoinette-Fouque qui longe la piscine Georges-Vallerey, à l'ouest par l'avenue Gambetta et à l'est par le boulevard Mortier, et au nord par un des accès à la station de métro Porte des Lilas (lignes 3 bis et 11).
 </t>
@@ -543,7 +557,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom du docteur et pédiatre Gaston Variot (1855-1930).
 </t>
@@ -574,7 +590,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il présente 3 391 m2 de superficie et a été créé en 1927 .
 On y trouve des marronniers et au centre une pelouse avec des plantes vivaces.
